--- a/Models/MCD.xlsx
+++ b/Models/MCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_946C5EB4DFC26D73188F1BE3725F86F6B0044DC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3D3D16-D60D-144D-A488-A5DEAA5A7F28}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_946C5EB4DFC26D73188F1BE3725F86F6B0044DC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8EDE456-DCD0-1744-BC07-0FDB7A1A705D}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1880" windowWidth="27560" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="860" windowWidth="33180" windowHeight="12140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -431,6 +431,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -634,14 +638,14 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.29296875" customWidth="1"/>
-    <col min="6" max="6" width="14.96875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -649,8 +653,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""MCD"")"),301.91)</f>
-        <v>301.91000000000003</v>
+        <v>289</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -659,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>714</v>
+        <v>715.03200000000004</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -676,8 +679,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">C3*C2</f>
-        <v>215563.74000000002</v>
+        <f>C3*C2</f>
+        <v>206644.24800000002</v>
       </c>
       <c r="D4" s="3"/>
       <c r="H4" s="4" t="s">
@@ -692,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1085</v>
+        <v>1238</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -703,7 +706,8 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>38424</v>
+        <f>80+663+38845+13175</f>
+        <v>52763</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -714,8 +718,8 @@
         <v>10</v>
       </c>
       <c r="C7" s="5">
-        <f ca="1">C4+C6-C5</f>
-        <v>252902.74000000002</v>
+        <f>C4+C6-C5</f>
+        <v>258169.24800000002</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -724,8 +728,8 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">C7/Model!I18</f>
-        <v>30.751792315175098</v>
+        <f>C7/Model!I18</f>
+        <v>31.392175097276269</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
@@ -745,7 +749,7 @@
       </c>
       <c r="C10" s="8">
         <f>C6/Model!I6</f>
-        <v>1.4824074074074074</v>
+        <v>2.0356095679012345</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -758,7 +762,7 @@
       </c>
       <c r="C11" s="8">
         <f>C6/Model!I18</f>
-        <v>4.6721789883268485</v>
+        <v>6.4157344357976651</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -954,17 +958,17 @@
   </sheetPr>
   <dimension ref="A1:AU999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.71875" customWidth="1"/>
-    <col min="2" max="2" width="9.70703125" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.15">
@@ -1142,7 +1146,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="20">
-        <f t="shared" ref="D6:I6" si="0">SUM(D3:D5)</f>
+        <f t="shared" ref="D6:H6" si="0">SUM(D3:D5)</f>
         <v>21364.400000000001</v>
       </c>
       <c r="E6" s="20">
@@ -1922,7 +1926,7 @@
         <v>54</v>
       </c>
       <c r="L22" s="25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1963,7 +1967,7 @@
         <v>56</v>
       </c>
       <c r="L23" s="26">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1980,8 +1984,8 @@
         <v>57</v>
       </c>
       <c r="L24" s="1">
-        <f ca="1">Main!C4</f>
-        <v>215563.74000000002</v>
+        <f>Main!C4</f>
+        <v>206644.24800000002</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2017,7 +2021,7 @@
       </c>
       <c r="L25" s="1">
         <f t="array" ref="L25">NPV(L23, J18:AU18)</f>
-        <v>214617.7111920614</v>
+        <v>185440.63182864591</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2030,28 +2034,28 @@
         <v>60</v>
       </c>
       <c r="D26" s="8">
-        <f ca="1">Main!C4/D18</f>
-        <v>35.77583894845155</v>
+        <f>Main!C4/D18</f>
+        <v>34.295523616689344</v>
       </c>
       <c r="E26" s="8">
-        <f ca="1">Main!C4/E18</f>
-        <v>45.568912377127177</v>
+        <f>Main!C4/E18</f>
+        <v>43.683383997463295</v>
       </c>
       <c r="F26" s="8">
-        <f ca="1">Main!C4/F18</f>
-        <v>28.569652229231831</v>
+        <f>Main!C4/F18</f>
+        <v>27.387511000371099</v>
       </c>
       <c r="G26" s="8">
-        <f ca="1">Main!C4/G18</f>
-        <v>34.897804759592042</v>
+        <f>Main!C4/G18</f>
+        <v>33.453820301117048</v>
       </c>
       <c r="H26" s="8">
-        <f ca="1">Main!C4/H18</f>
-        <v>25.450264462809919</v>
+        <f>Main!C4/H18</f>
+        <v>24.397195749704842</v>
       </c>
       <c r="I26" s="8">
-        <f ca="1">Main!C4/I18</f>
-        <v>26.211544260700393</v>
+        <f>Main!C4/I18</f>
+        <v>25.126975680933853</v>
       </c>
       <c r="J26" s="8"/>
       <c r="L26" s="23"/>
@@ -2095,7 +2099,7 @@
       </c>
       <c r="L27" s="8">
         <f>L25/Main!C3</f>
-        <v>300.58502968075828</v>
+        <v>259.34591994294789</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2129,8 +2133,8 @@
         <v>64</v>
       </c>
       <c r="L28" s="2">
-        <f ca="1">Main!C2</f>
-        <v>301.91000000000003</v>
+        <f>Main!C2</f>
+        <v>289</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2171,8 +2175,8 @@
         <v>66</v>
       </c>
       <c r="L29" s="23">
-        <f ca="1">L27/L28-100%</f>
-        <v>-4.3886268068025203E-3</v>
+        <f>L27/L28-100%</f>
+        <v>-0.10260927355381355</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
